--- a/Database/Kato/Arges_CT.xlsx
+++ b/Database/Kato/Arges_CT.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D78616D5-FA29-468E-A92E-86A5271A134C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D582A3DC-50DA-4770-9776-E3F4680D884E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="10500" yWindow="192" windowWidth="17424" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cazuri_SuCazuri_Suceava" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -869,11 +879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G176" sqref="G176"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2458,7 +2468,7 @@
         <v>65</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:C178" si="2">SUM(B133:B134+C133)</f>
+        <f t="shared" ref="C134:C183" si="2">SUM(B133:B134+C133)</f>
         <v>1394</v>
       </c>
     </row>
@@ -2988,6 +2998,66 @@
       <c r="C178">
         <f t="shared" si="2"/>
         <v>4917</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B179">
+        <v>31</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="2"/>
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B180">
+        <v>32</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="2"/>
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B181">
+        <v>27</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B182">
+        <v>27</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B183">
+        <v>17</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>5051</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Kato/Arges_CT.xlsx
+++ b/Database/Kato/Arges_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D582A3DC-50DA-4770-9776-E3F4680D884E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020B5F4E-BCA4-4AA9-9089-A7123BDD60FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="192" windowWidth="17424" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11052" yWindow="576" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cazuri_SuCazuri_Suceava" sheetId="1" r:id="rId1"/>
@@ -880,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2468,7 +2468,7 @@
         <v>65</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:C183" si="2">SUM(B133:B134+C133)</f>
+        <f t="shared" ref="C134:C192" si="2">SUM(B133:B134+C133)</f>
         <v>1394</v>
       </c>
     </row>
@@ -3058,6 +3058,114 @@
       <c r="C183">
         <f t="shared" si="2"/>
         <v>5051</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B184">
+        <v>11</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B185">
+        <v>21</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B186">
+        <v>31</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B187">
+        <v>14</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B188">
+        <v>40</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B189">
+        <v>13</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>5181</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B191">
+        <v>18</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B192">
+        <v>26</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>5227</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Kato/Arges_CT.xlsx
+++ b/Database/Kato/Arges_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020B5F4E-BCA4-4AA9-9089-A7123BDD60FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A9A2B2-8BCB-4137-8C35-0B06EA7B83F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11052" yWindow="576" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14004" yWindow="420" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cazuri_SuCazuri_Suceava" sheetId="1" r:id="rId1"/>
@@ -880,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="E209" sqref="E209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2468,7 +2468,7 @@
         <v>65</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:C192" si="2">SUM(B133:B134+C133)</f>
+        <f t="shared" ref="C134:C197" si="2">SUM(B133:B134+C133)</f>
         <v>1394</v>
       </c>
     </row>
@@ -3167,6 +3167,216 @@
         <f t="shared" si="2"/>
         <v>5227</v>
       </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B193">
+        <v>25</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B194">
+        <v>19</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="2"/>
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B195">
+        <v>22</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="2"/>
+        <v>5293</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B196">
+        <v>10</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="2"/>
+        <v>5303</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="2"/>
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <f t="shared" ref="C198:C210" si="3">SUM(B197:B198+C197)</f>
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B199">
+        <v>18</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="3"/>
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B200">
+        <v>17</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="3"/>
+        <v>5348</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B201">
+        <v>35</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="3"/>
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B202">
+        <v>19</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="3"/>
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B203">
+        <v>14</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="3"/>
+        <v>5416</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B204">
+        <v>7</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="3"/>
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B205">
+        <v>10</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="3"/>
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B206">
+        <v>31</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="3"/>
+        <v>5464</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B207">
+        <v>15</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="3"/>
+        <v>5479</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B208">
+        <v>14</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="3"/>
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B209">
+        <v>15</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="3"/>
+        <v>5508</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/Arges_CT.xlsx
+++ b/Database/Kato/Arges_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A9A2B2-8BCB-4137-8C35-0B06EA7B83F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58445DB5-17EF-41B4-BD6B-FD6B602004DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14004" yWindow="420" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12504" yWindow="192" windowWidth="11460" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cazuri_SuCazuri_Suceava" sheetId="1" r:id="rId1"/>
@@ -880,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="E209" sqref="E209"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="E242" sqref="E242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3236,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="C198">
-        <f t="shared" ref="C198:C210" si="3">SUM(B197:B198+C197)</f>
+        <f t="shared" ref="C198:C245" si="3">SUM(B197:B198+C197)</f>
         <v>5313</v>
       </c>
     </row>
@@ -3373,10 +3373,436 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="1"/>
+      <c r="A210" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B210">
+        <v>15</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="3"/>
+        <v>5523</v>
+      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="1"/>
+      <c r="A211" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B211">
+        <v>25</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="3"/>
+        <v>5548</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="3"/>
+        <v>5552</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B213">
+        <v>20</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="3"/>
+        <v>5572</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B214">
+        <v>26</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="3"/>
+        <v>5598</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B215">
+        <v>12</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="3"/>
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B216">
+        <v>16</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="3"/>
+        <v>5626</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="3"/>
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B218">
+        <v>23</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="3"/>
+        <v>5652</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B219">
+        <v>14</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="3"/>
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B220">
+        <v>20</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="3"/>
+        <v>5686</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B221">
+        <v>45</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="3"/>
+        <v>5731</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B222">
+        <v>39</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="3"/>
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B223">
+        <v>34</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="3"/>
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B224">
+        <v>18</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="3"/>
+        <v>5822</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B225">
+        <v>22</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="3"/>
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B226">
+        <v>17</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="3"/>
+        <v>5861</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B227">
+        <v>29</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="3"/>
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B228">
+        <v>49</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="3"/>
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B229">
+        <v>34</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="3"/>
+        <v>5973</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B230">
+        <v>46</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="3"/>
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B231">
+        <v>43</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="3"/>
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B232">
+        <v>33</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="3"/>
+        <v>6095</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B233">
+        <v>46</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="3"/>
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B234">
+        <v>40</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="3"/>
+        <v>6181</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B235">
+        <v>44</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="3"/>
+        <v>6225</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B236">
+        <v>65</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="3"/>
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B237">
+        <v>93</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="3"/>
+        <v>6383</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B238">
+        <v>87</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="3"/>
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B239">
+        <v>57</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="3"/>
+        <v>6527</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B240">
+        <v>33</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="3"/>
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B241">
+        <v>65</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="3"/>
+        <v>6625</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B242">
+        <v>48</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="3"/>
+        <v>6673</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B243">
+        <v>99</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="3"/>
+        <v>6772</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B244">
+        <v>112</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="3"/>
+        <v>6884</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B245">
+        <v>94</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="3"/>
+        <v>6978</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
